--- a/Data/AFDW/tegula_april.xlsx
+++ b/Data/AFDW/tegula_april.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/AFDW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D204AA61-5F2E-466B-94D2-F73029AF13A8}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8174380A-6758-450D-B7AC-18F5989922E8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{741D3A54-681F-4C81-825B-BEBB540A03C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="tegula_may" sheetId="1" r:id="rId1"/>
+    <sheet name="tegula_april" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>snail_ID</t>
   </si>
@@ -212,6 +225,12 @@
   </si>
   <si>
     <t>shell_width</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>dry_shell</t>
   </si>
 </sst>
 </file>
@@ -1076,17 +1095,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0968407-097C-4660-9142-C9F3CFE35CCD}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1103,1016 +1124,1392 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.98099999999999998</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="D2">
-        <v>1.0139</v>
+        <v>1.1124000000000001</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>0.13430000000000009</v>
       </c>
       <c r="F2">
-        <v>0.97419999999999995</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="G2">
-        <v>2.2704</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="H2">
-        <v>14.2</v>
+        <v>3.0394000000000001</v>
       </c>
       <c r="I2">
-        <v>15.32</v>
+        <v>16.59</v>
+      </c>
+      <c r="J2">
+        <v>17.14</v>
+      </c>
+      <c r="K2">
+        <f>H2-G2</f>
+        <v>2.0615000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0.98270000000000002</v>
+        <v>0.9677</v>
       </c>
       <c r="D3">
-        <v>1.0522</v>
-      </c>
-      <c r="F3">
-        <v>0.97360000000000002</v>
+        <v>1.0235000000000001</v>
+      </c>
+      <c r="E3">
+        <f>D3-C3</f>
+        <v>5.5800000000000072E-2</v>
       </c>
       <c r="G3">
-        <v>2.6781000000000001</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="H3">
-        <v>16.04</v>
+        <v>2.9316</v>
       </c>
       <c r="I3">
-        <v>16.37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
+        <v>15.9</v>
+      </c>
+      <c r="J3">
+        <v>17.23</v>
+      </c>
+      <c r="K3">
+        <f>H3-G3</f>
+        <v>1.9691000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.97550000000000003</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="D4">
-        <v>1.0243</v>
+        <v>1.0241</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4</f>
+        <v>4.9699999999999966E-2</v>
       </c>
       <c r="F4">
-        <v>0.97140000000000004</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="G4">
-        <v>3.0975000000000001</v>
+        <v>0.9758</v>
       </c>
       <c r="H4">
-        <v>14.84</v>
+        <v>2.9251999999999998</v>
       </c>
       <c r="I4">
-        <v>17.53</v>
+        <v>15.47</v>
+      </c>
+      <c r="J4">
+        <v>17.27</v>
+      </c>
+      <c r="K4">
+        <f>H4-G4</f>
+        <v>1.9493999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.97489999999999999</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="D5">
-        <v>1.0236000000000001</v>
+        <v>1.0656000000000001</v>
+      </c>
+      <c r="E5">
+        <f>D5-C5</f>
+        <v>9.9500000000000144E-2</v>
       </c>
       <c r="F5">
-        <v>0.97009999999999996</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="G5">
-        <v>2.6480999999999999</v>
+        <v>0.95930000000000004</v>
       </c>
       <c r="H5">
-        <v>13.65</v>
+        <v>2.3736999999999999</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>14.24</v>
+      </c>
+      <c r="J5">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="K5">
+        <f>H5-G5</f>
+        <v>1.4143999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0.98519999999999996</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="D6">
-        <v>1.0321</v>
-      </c>
-      <c r="F6">
-        <v>0.97250000000000003</v>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="E6">
+        <f>D6-C6</f>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="G6">
-        <v>2.7303999999999999</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="H6">
-        <v>15.75</v>
+        <v>2.9144000000000001</v>
       </c>
       <c r="I6">
-        <v>17.14</v>
+        <v>14.88</v>
+      </c>
+      <c r="J6">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="K6">
+        <f>H6-G6</f>
+        <v>1.9391000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>0.96619999999999995</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="D7">
-        <v>1.0654999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.97</v>
+        <v>1.0121</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>3.5000000000000031E-2</v>
       </c>
       <c r="G7">
-        <v>2.7565</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="H7">
-        <v>16.97</v>
+        <v>2.4721000000000002</v>
       </c>
       <c r="I7">
-        <v>16.78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
+        <v>13.2</v>
+      </c>
+      <c r="J7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K7">
+        <f>H7-G7</f>
+        <v>1.4994000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.97519999999999996</v>
+        <v>0.9587</v>
       </c>
       <c r="D8">
-        <v>1.0198</v>
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="E8">
+        <f>D8-C8</f>
+        <v>3.9100000000000024E-2</v>
       </c>
       <c r="F8">
-        <v>0.9718</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="G8">
-        <v>2.4401000000000002</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="H8">
-        <v>13.83</v>
+        <v>2.6724000000000001</v>
       </c>
       <c r="I8">
-        <v>16.71</v>
+        <v>14.9</v>
+      </c>
+      <c r="J8">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="K8">
+        <f>H8-G8</f>
+        <v>1.6984000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.98089999999999999</v>
+        <v>0.97650000000000003</v>
       </c>
       <c r="D9">
-        <v>1.0362</v>
+        <v>1.1241000000000001</v>
+      </c>
+      <c r="E9">
+        <f>D9-C9</f>
+        <v>0.14760000000000006</v>
       </c>
       <c r="F9">
-        <v>0.97950000000000004</v>
+        <v>0.995</v>
       </c>
       <c r="G9">
-        <v>2.6926999999999999</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="H9">
-        <v>14.92</v>
+        <v>3.2094999999999998</v>
       </c>
       <c r="I9">
-        <v>17.11</v>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J9">
+        <v>18.79</v>
+      </c>
+      <c r="K9">
+        <f>H9-G9</f>
+        <v>2.2355999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>0.9677</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="D10">
-        <v>1.0235000000000001</v>
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E10">
+        <f>D10-C10</f>
+        <v>3.3599999999999963E-2</v>
       </c>
       <c r="F10">
-        <v>0.96250000000000002</v>
+        <v>0.96830000000000005</v>
       </c>
       <c r="G10">
-        <v>2.9316</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="H10">
-        <v>15.9</v>
+        <v>2.3687</v>
       </c>
       <c r="I10">
-        <v>17.23</v>
+        <v>14.14</v>
+      </c>
+      <c r="J10">
+        <v>16.03</v>
+      </c>
+      <c r="K10">
+        <f>H10-G10</f>
+        <v>1.4045000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.96020000000000005</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D11">
-        <v>1.0029999999999999</v>
+        <v>1.0250999999999999</v>
+      </c>
+      <c r="E11">
+        <f>D11-C11</f>
+        <v>4.6099999999999919E-2</v>
       </c>
       <c r="F11">
-        <v>0.96909999999999996</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="G11">
-        <v>2.8698999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="H11">
-        <v>15.97</v>
+        <v>2.7090999999999998</v>
       </c>
       <c r="I11">
-        <v>16.920000000000002</v>
+        <v>16.34</v>
+      </c>
+      <c r="J11">
+        <v>17.23</v>
+      </c>
+      <c r="K11">
+        <f>H11-G11</f>
+        <v>1.7290999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>0.97130000000000005</v>
+        <v>0.96360000000000001</v>
       </c>
       <c r="D12">
-        <v>1.0182</v>
-      </c>
-      <c r="F12">
-        <v>0.96860000000000002</v>
+        <v>1.0188999999999999</v>
+      </c>
+      <c r="E12">
+        <f>D12-C12</f>
+        <v>5.5299999999999905E-2</v>
       </c>
       <c r="G12">
-        <v>2.8456999999999999</v>
+        <v>0.96830000000000005</v>
       </c>
       <c r="H12">
-        <v>15.06</v>
+        <v>3.2688000000000001</v>
       </c>
       <c r="I12">
-        <v>17.02</v>
+        <v>17.05</v>
+      </c>
+      <c r="J12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K12">
+        <f>H12-G12</f>
+        <v>2.3005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>0.96079999999999999</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="D13">
-        <v>1.02</v>
-      </c>
-      <c r="F13">
-        <v>0.96530000000000005</v>
+        <v>1.0113000000000001</v>
+      </c>
+      <c r="E13">
+        <f>D13-C13</f>
+        <v>4.5700000000000074E-2</v>
       </c>
       <c r="G13">
-        <v>3.0352999999999999</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="H13">
-        <v>17.03</v>
+        <v>2.5888</v>
       </c>
       <c r="I13">
-        <v>17.260000000000002</v>
+        <v>14.9</v>
+      </c>
+      <c r="J13">
+        <v>17.09</v>
+      </c>
+      <c r="K13">
+        <f>H13-G13</f>
+        <v>1.6172</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>0.97060000000000002</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="D14">
-        <v>1.0164</v>
+        <v>1.0168999999999999</v>
+      </c>
+      <c r="E14">
+        <f>D14-C14</f>
+        <v>3.4799999999999942E-2</v>
       </c>
       <c r="F14">
-        <v>0.96350000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="G14">
-        <v>2.5672999999999999</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="H14">
-        <v>14.69</v>
+        <v>2.4247000000000001</v>
       </c>
       <c r="I14">
-        <v>17.25</v>
+        <v>13.92</v>
+      </c>
+      <c r="J14">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="K14">
+        <f>H14-G14</f>
+        <v>1.4441999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>0.96879999999999999</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="D15">
-        <v>1.0215000000000001</v>
+        <v>1.0476000000000001</v>
+      </c>
+      <c r="E15">
+        <f>D15-C15</f>
+        <v>6.5200000000000036E-2</v>
       </c>
       <c r="F15">
-        <v>0.96389999999999998</v>
+        <v>1.0115000000000001</v>
       </c>
       <c r="G15">
-        <v>2.9910000000000001</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="H15">
-        <v>17.09</v>
+        <v>3.0310000000000001</v>
       </c>
       <c r="I15">
-        <v>17.38</v>
+        <v>16.86</v>
+      </c>
+      <c r="J15">
+        <v>17.68</v>
+      </c>
+      <c r="K15">
+        <f>H15-G15</f>
+        <v>2.0528000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.0717000000000001</v>
+      </c>
+      <c r="E16">
+        <f>D16-C16</f>
+        <v>0.10300000000000009</v>
+      </c>
+      <c r="F16">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H16">
+        <v>2.7401</v>
+      </c>
+      <c r="I16">
+        <v>15.7</v>
+      </c>
+      <c r="J16">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="K16">
+        <f>H16-G16</f>
+        <v>1.7730999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="D17">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E17">
+        <f>D17-C17</f>
+        <v>4.2799999999999838E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="H17">
+        <v>2.8698999999999999</v>
+      </c>
+      <c r="I17">
+        <v>15.97</v>
+      </c>
+      <c r="J17">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="K17">
+        <f>H17-G17</f>
+        <v>1.9007999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="D18">
+        <v>1.02</v>
+      </c>
+      <c r="E18">
+        <f>D18-C18</f>
+        <v>5.920000000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="H18">
+        <v>3.0352999999999999</v>
+      </c>
+      <c r="I18">
+        <v>17.03</v>
+      </c>
+      <c r="J18">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="K18">
+        <f>H18-G18</f>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="D19">
+        <v>1.0225</v>
+      </c>
+      <c r="E19">
+        <f>D19-C19</f>
+        <v>4.8799999999999955E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="H19">
+        <v>2.8492000000000002</v>
+      </c>
+      <c r="I19">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="J19">
+        <v>16.54</v>
+      </c>
+      <c r="K19">
+        <f>H19-G19</f>
+        <v>1.8711000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.0215000000000001</v>
+      </c>
+      <c r="E20">
+        <f>D20-C20</f>
+        <v>5.270000000000008E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="H20">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="I20">
+        <v>17.09</v>
+      </c>
+      <c r="J20">
+        <v>17.38</v>
+      </c>
+      <c r="K20">
+        <f>H20-G20</f>
+        <v>2.0270999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E21">
+        <f>D21-C21</f>
+        <v>2.9399999999999982E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="H21">
+        <v>2.2907999999999999</v>
+      </c>
+      <c r="I21">
+        <v>13.13</v>
+      </c>
+      <c r="J21">
+        <v>15.88</v>
+      </c>
+      <c r="K21">
+        <f>H21-G21</f>
+        <v>1.3323999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.0236000000000001</v>
+      </c>
+      <c r="E22">
+        <f>D22-C22</f>
+        <v>4.8700000000000077E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="H22">
+        <v>2.6480999999999999</v>
+      </c>
+      <c r="I22">
+        <v>13.65</v>
+      </c>
+      <c r="J22">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>0.97770000000000001</v>
-      </c>
-      <c r="D16">
-        <v>1.0126999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.97619999999999996</v>
-      </c>
-      <c r="G16">
-        <v>2.617</v>
-      </c>
-      <c r="H16">
-        <v>14.71</v>
-      </c>
-      <c r="I16">
-        <v>16.82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="K22">
+        <f>H22-G22</f>
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="D23">
+        <v>1.0321</v>
+      </c>
+      <c r="E23">
+        <f>D23-C23</f>
+        <v>4.6900000000000053E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="H23">
+        <v>2.7303999999999999</v>
+      </c>
+      <c r="I23">
+        <v>15.75</v>
+      </c>
+      <c r="J23">
+        <v>17.14</v>
+      </c>
+      <c r="K23">
+        <f>H23-G23</f>
+        <v>1.7578999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
         <v>0.97709999999999997</v>
       </c>
-      <c r="D17">
-        <v>1.0121</v>
-      </c>
-      <c r="F17">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="G17">
-        <v>2.4721000000000002</v>
-      </c>
-      <c r="H17">
-        <v>13.2</v>
-      </c>
-      <c r="I17">
+      <c r="D24">
+        <v>1.0196000000000001</v>
+      </c>
+      <c r="E24">
+        <f>D24-C24</f>
+        <v>4.2500000000000093E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G24">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="H24">
+        <v>2.5638999999999998</v>
+      </c>
+      <c r="I24">
+        <v>14.6</v>
+      </c>
+      <c r="J24">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="K24">
+        <f>H24-G24</f>
+        <v>1.5974999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="D25">
+        <v>1.0254000000000001</v>
+      </c>
+      <c r="E25">
+        <f>D25-C25</f>
+        <v>4.9800000000000066E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="H25">
+        <v>2.7223999999999999</v>
+      </c>
+      <c r="I25">
+        <v>15.12</v>
+      </c>
+      <c r="J25">
+        <v>17.37</v>
+      </c>
+      <c r="K25">
+        <f>H25-G25</f>
+        <v>1.7507999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="D26">
+        <v>1.0186999999999999</v>
+      </c>
+      <c r="E26">
+        <f>D26-C26</f>
+        <v>4.1999999999999926E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.9657</v>
+      </c>
+      <c r="H26">
+        <v>2.3182999999999998</v>
+      </c>
+      <c r="I26">
+        <v>13.78</v>
+      </c>
+      <c r="J26">
+        <v>15.38</v>
+      </c>
+      <c r="K26">
+        <f>H26-G26</f>
+        <v>1.3525999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="D27">
+        <v>1.0164</v>
+      </c>
+      <c r="E27">
+        <f>D27-C27</f>
+        <v>4.5799999999999952E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="H27">
+        <v>2.5672999999999999</v>
+      </c>
+      <c r="I27">
+        <v>14.69</v>
+      </c>
+      <c r="J27">
+        <v>17.25</v>
+      </c>
+      <c r="K27">
+        <f>H27-G27</f>
+        <v>1.6037999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D28">
+        <v>1.0951</v>
+      </c>
+      <c r="E28">
+        <f>D28-C28</f>
+        <v>0.11709999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.9637</v>
+      </c>
+      <c r="H28">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="I28">
+        <v>17.73</v>
+      </c>
+      <c r="J28">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="K28">
+        <f>H28-G28</f>
+        <v>2.2202999999999999</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1.0206999999999999</v>
+      </c>
+      <c r="E29">
+        <f>D29-C29</f>
+        <v>5.1999999999999935E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="G29">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="H29">
+        <v>2.5592000000000001</v>
+      </c>
+      <c r="I29">
+        <v>15.28</v>
+      </c>
+      <c r="J29">
+        <v>16.57</v>
+      </c>
+      <c r="K29">
+        <f>H29-G29</f>
+        <v>1.5828000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="D30">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="E30">
+        <f>D30-C30</f>
+        <v>2.8599999999999959E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.4937</v>
+      </c>
+      <c r="I30">
+        <v>13.97</v>
+      </c>
+      <c r="J30">
+        <v>14.93</v>
+      </c>
+      <c r="K30">
+        <f>H30-G30</f>
+        <v>1.5268999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D31">
+        <v>1.0198</v>
+      </c>
+      <c r="E31">
+        <f>D31-C31</f>
+        <v>4.5399999999999996E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="H31">
+        <v>2.5177</v>
+      </c>
+      <c r="I31">
+        <v>14.05</v>
+      </c>
+      <c r="J31">
+        <v>16.77</v>
+      </c>
+      <c r="K31">
+        <f>H31-G31</f>
+        <v>1.5432000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="D32">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E32">
+        <f>D32-C32</f>
+        <v>4.9599999999999866E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.97</v>
+      </c>
+      <c r="H32">
+        <v>2.8593999999999999</v>
+      </c>
+      <c r="I32">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>0.97560000000000002</v>
-      </c>
-      <c r="D18">
-        <v>1.0254000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="G18">
-        <v>2.7223999999999999</v>
-      </c>
-      <c r="H18">
-        <v>15.12</v>
-      </c>
-      <c r="I18">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>0.96140000000000003</v>
-      </c>
-      <c r="D19">
-        <v>1.0036</v>
-      </c>
-      <c r="F19">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="G19">
-        <v>2.5916000000000001</v>
-      </c>
-      <c r="H19">
-        <v>15.44</v>
-      </c>
-      <c r="I19">
-        <v>16.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>0.95169999999999999</v>
-      </c>
-      <c r="D20">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="F20">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="G20">
-        <v>2.9144000000000001</v>
-      </c>
-      <c r="H20">
-        <v>14.88</v>
-      </c>
-      <c r="I20">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D21">
-        <v>1.0198</v>
-      </c>
-      <c r="F21">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="G21">
-        <v>2.5177</v>
-      </c>
-      <c r="H21">
-        <v>14.05</v>
-      </c>
-      <c r="I21">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="D22">
-        <v>1.0113000000000001</v>
-      </c>
-      <c r="F22">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="G22">
-        <v>2.5888</v>
-      </c>
-      <c r="H22">
-        <v>14.9</v>
-      </c>
-      <c r="I22">
-        <v>17.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.95840000000000003</v>
-      </c>
-      <c r="G23">
-        <v>2.2907999999999999</v>
-      </c>
-      <c r="H23">
-        <v>13.13</v>
-      </c>
-      <c r="I23">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.0188999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.96830000000000005</v>
-      </c>
-      <c r="G24">
-        <v>3.2688000000000001</v>
-      </c>
-      <c r="H24">
-        <v>17.05</v>
-      </c>
-      <c r="I24">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="D25">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.97</v>
-      </c>
-      <c r="G25">
-        <v>2.8593999999999999</v>
-      </c>
-      <c r="H25">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I25">
+      <c r="J32">
         <v>17.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>0.96160000000000001</v>
-      </c>
-      <c r="D26">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="F26">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="G26">
-        <v>2.3256999999999999</v>
-      </c>
-      <c r="H26">
-        <v>13.9</v>
-      </c>
-      <c r="I26">
-        <v>15.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>0.9859</v>
-      </c>
-      <c r="D27">
-        <v>1.1023000000000001</v>
-      </c>
-      <c r="F27">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="G27">
-        <v>2.9788000000000001</v>
-      </c>
-      <c r="H27">
-        <v>15.78</v>
-      </c>
-      <c r="I27">
-        <v>17.64</v>
-      </c>
-      <c r="K27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="D28">
-        <v>1.0185</v>
-      </c>
-      <c r="F28">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="G28">
-        <v>2.4523999999999999</v>
-      </c>
-      <c r="H28">
-        <v>14.08</v>
-      </c>
-      <c r="I28">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="D29">
-        <v>1.0165</v>
-      </c>
-      <c r="F29">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="G29">
-        <v>3.0081000000000002</v>
-      </c>
-      <c r="H29">
-        <v>17.07</v>
-      </c>
-      <c r="I29">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="D30">
-        <v>1.0196000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="G30">
-        <v>2.5638999999999998</v>
-      </c>
-      <c r="H30">
-        <v>14.6</v>
-      </c>
-      <c r="I30">
-        <v>16.940000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>0.96379999999999999</v>
-      </c>
-      <c r="D31">
-        <v>0.99529999999999996</v>
-      </c>
-      <c r="F31">
-        <v>0.96930000000000005</v>
-      </c>
-      <c r="G31">
-        <v>2.4767000000000001</v>
-      </c>
-      <c r="H31">
-        <v>14.44</v>
-      </c>
-      <c r="I31">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="D32">
-        <v>1.0122</v>
-      </c>
-      <c r="F32">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="G32">
-        <v>2.7174</v>
-      </c>
-      <c r="H32">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I32">
-        <v>16.78</v>
+      <c r="K32">
+        <f>H32-G32</f>
+        <v>1.8894</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>0.97209999999999996</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="D33">
-        <v>1.0006999999999999</v>
+        <v>1.0185</v>
+      </c>
+      <c r="E33">
+        <f>D33-C33</f>
+        <v>3.5399999999999987E-2</v>
       </c>
       <c r="F33">
-        <v>0.96679999999999999</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="G33">
-        <v>2.4937</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H33">
-        <v>13.97</v>
+        <v>2.4523999999999999</v>
       </c>
       <c r="I33">
-        <v>14.93</v>
+        <v>14.08</v>
+      </c>
+      <c r="J33">
+        <v>16.77</v>
+      </c>
+      <c r="K33">
+        <f>H33-G33</f>
+        <v>1.4657999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>0.97819999999999996</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="D34">
-        <v>1.0189999999999999</v>
+        <v>1.0165</v>
+      </c>
+      <c r="E34">
+        <f>D34-C34</f>
+        <v>5.0099999999999922E-2</v>
       </c>
       <c r="F34">
-        <v>0.97470000000000001</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="G34">
-        <v>2.9058999999999999</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="H34">
-        <v>14.94</v>
+        <v>3.0081000000000002</v>
       </c>
       <c r="I34">
-        <v>17</v>
+        <v>17.07</v>
+      </c>
+      <c r="J34">
+        <v>17.13</v>
+      </c>
+      <c r="K34">
+        <f>H34-G34</f>
+        <v>2.0403000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0.97140000000000004</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="D35">
-        <v>1.0038</v>
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E35">
+        <f>D35-C35</f>
+        <v>4.0799999999999947E-2</v>
       </c>
       <c r="F35">
-        <v>0.97119999999999995</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="G35">
-        <v>2.2629999999999999</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="H35">
-        <v>13.28</v>
+        <v>2.9058999999999999</v>
       </c>
       <c r="I35">
-        <v>15.08</v>
+        <v>14.94</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <f>H35-G35</f>
+        <v>1.9312</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>0.97299999999999998</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="D36">
-        <v>1.0086999999999999</v>
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="E36">
+        <f>D36-C36</f>
+        <v>3.1499999999999972E-2</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="G36">
-        <v>2.7212999999999998</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="H36">
-        <v>14.22</v>
+        <v>2.4767000000000001</v>
       </c>
       <c r="I36">
-        <v>16.72</v>
+        <v>14.44</v>
+      </c>
+      <c r="J36">
+        <v>15.3</v>
+      </c>
+      <c r="K36">
+        <f>H36-G36</f>
+        <v>1.5074000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.97809999999999997</v>
+        <v>0.9859</v>
       </c>
       <c r="D37">
-        <v>1.1124000000000001</v>
+        <v>1.1023000000000001</v>
+      </c>
+      <c r="E37">
+        <f>D37-C37</f>
+        <v>0.11640000000000006</v>
       </c>
       <c r="F37">
-        <v>0.97789999999999999</v>
+        <v>1.0021</v>
       </c>
       <c r="G37">
-        <v>3.0394000000000001</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="H37">
-        <v>16.59</v>
+        <v>2.9788000000000001</v>
       </c>
       <c r="I37">
-        <v>17.14</v>
+        <v>15.78</v>
+      </c>
+      <c r="J37">
+        <v>17.64</v>
+      </c>
+      <c r="K37">
+        <f>H37-G37</f>
+        <v>2.0045000000000002</v>
+      </c>
+      <c r="L37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>0.98209999999999997</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="D38">
-        <v>1.0168999999999999</v>
+        <v>1.0122</v>
+      </c>
+      <c r="E38">
+        <f>D38-C38</f>
+        <v>4.1000000000000036E-2</v>
       </c>
       <c r="F38">
-        <v>0.98050000000000004</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G38">
-        <v>2.4247000000000001</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="H38">
-        <v>13.92</v>
+        <v>2.7174</v>
       </c>
       <c r="I38">
-        <v>16.940000000000001</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J38">
+        <v>16.78</v>
+      </c>
+      <c r="K38">
+        <f>H38-G38</f>
+        <v>1.7421000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.97440000000000004</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="D39">
-        <v>1.0241</v>
-      </c>
-      <c r="F39">
-        <v>0.9758</v>
+        <v>1.0522</v>
+      </c>
+      <c r="E39">
+        <f>D39-C39</f>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="G39">
-        <v>2.9251999999999998</v>
+        <v>0.97360000000000002</v>
       </c>
       <c r="H39">
-        <v>15.47</v>
+        <v>2.6781000000000001</v>
       </c>
       <c r="I39">
-        <v>17.27</v>
+        <v>16.04</v>
+      </c>
+      <c r="J39">
+        <v>16.37</v>
+      </c>
+      <c r="K39">
+        <f>H39-G39</f>
+        <v>1.7045000000000001</v>
+      </c>
+      <c r="L39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2128,199 +2525,275 @@
       <c r="D40">
         <v>1.0145999999999999</v>
       </c>
+      <c r="E40">
+        <f>D40-C40</f>
+        <v>5.0999999999999934E-2</v>
+      </c>
       <c r="F40">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="G40">
         <v>0.96699999999999997</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2.7736999999999998</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>14.85</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>16.96</v>
+      </c>
+      <c r="K40">
+        <f>H40-G40</f>
+        <v>1.8066999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>0.96560000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D41">
-        <v>0.99919999999999998</v>
+        <v>1.0086999999999999</v>
+      </c>
+      <c r="E41">
+        <f>D41-C41</f>
+        <v>3.5699999999999954E-2</v>
       </c>
       <c r="F41">
-        <v>0.96419999999999995</v>
+        <v>0.9768</v>
       </c>
       <c r="G41">
-        <v>2.3687</v>
+        <v>0.97</v>
       </c>
       <c r="H41">
-        <v>14.14</v>
+        <v>2.7212999999999998</v>
       </c>
       <c r="I41">
-        <v>16.03</v>
+        <v>14.22</v>
+      </c>
+      <c r="J41">
+        <v>16.72</v>
+      </c>
+      <c r="K41">
+        <f>H41-G41</f>
+        <v>1.7512999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>0.97919999999999996</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="D42">
-        <v>1.0134000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.97819999999999996</v>
+        <v>1.0198</v>
+      </c>
+      <c r="E42">
+        <f>D42-C42</f>
+        <v>4.4600000000000084E-2</v>
       </c>
       <c r="G42">
-        <v>2.3748</v>
+        <v>0.9718</v>
       </c>
       <c r="H42">
-        <v>13.79</v>
+        <v>2.4401000000000002</v>
       </c>
       <c r="I42">
-        <v>15.45</v>
+        <v>13.83</v>
+      </c>
+      <c r="J42">
+        <v>16.71</v>
+      </c>
+      <c r="K42">
+        <f>H42-G42</f>
+        <v>1.4683000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>0.98280000000000001</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="D43">
-        <v>1.0285</v>
-      </c>
-      <c r="F43">
-        <v>0.98099999999999998</v>
+        <v>1.0182</v>
+      </c>
+      <c r="E43">
+        <f>D43-C43</f>
+        <v>4.6899999999999942E-2</v>
       </c>
       <c r="G43">
-        <v>2.6678000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>2.8456999999999999</v>
       </c>
       <c r="I43">
-        <v>17.22</v>
+        <v>15.06</v>
+      </c>
+      <c r="J43">
+        <v>17.02</v>
+      </c>
+      <c r="K43">
+        <f>H43-G43</f>
+        <v>1.8771</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>0.97650000000000003</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="D44">
-        <v>1.1241000000000001</v>
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="E44">
+        <f>D44-C44</f>
+        <v>3.4900000000000042E-2</v>
       </c>
       <c r="F44">
-        <v>0.97389999999999999</v>
+        <v>0.9667</v>
       </c>
       <c r="G44">
-        <v>3.2094999999999998</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="H44">
-        <v>16.989999999999998</v>
+        <v>2.3256999999999999</v>
       </c>
       <c r="I44">
-        <v>18.79</v>
+        <v>13.9</v>
+      </c>
+      <c r="J44">
+        <v>15.15</v>
+      </c>
+      <c r="K44">
+        <f>H44-G44</f>
+        <v>1.3540999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>0.97670000000000001</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="D45">
-        <v>1.0186999999999999</v>
-      </c>
-      <c r="F45">
-        <v>0.9657</v>
+        <v>1.0243</v>
+      </c>
+      <c r="E45">
+        <f>D45-C45</f>
+        <v>4.8799999999999955E-2</v>
       </c>
       <c r="G45">
-        <v>2.3182999999999998</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="H45">
-        <v>13.78</v>
+        <v>3.0975000000000001</v>
       </c>
       <c r="I45">
-        <v>15.38</v>
+        <v>14.84</v>
+      </c>
+      <c r="J45">
+        <v>17.53</v>
+      </c>
+      <c r="K45">
+        <f>H45-G45</f>
+        <v>2.1261000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.97299999999999998</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="D46">
-        <v>1.0249999999999999</v>
+        <v>1.0285</v>
+      </c>
+      <c r="E46">
+        <f>D46-C46</f>
+        <v>4.5699999999999963E-2</v>
       </c>
       <c r="F46">
-        <v>0.97709999999999997</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="G46">
-        <v>2.3502999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H46">
-        <v>13.82</v>
+        <v>2.6678000000000002</v>
       </c>
       <c r="I46">
-        <v>16.62</v>
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>17.22</v>
+      </c>
+      <c r="K46">
+        <f>H46-G46</f>
+        <v>1.6868000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>0.97799999999999998</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="D47">
-        <v>1.0951</v>
-      </c>
-      <c r="F47">
-        <v>0.9637</v>
+        <v>1.0654999999999999</v>
+      </c>
+      <c r="E47">
+        <f>D47-C47</f>
+        <v>9.9299999999999944E-2</v>
       </c>
       <c r="G47">
-        <v>3.1840000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="H47">
-        <v>17.73</v>
+        <v>2.7565</v>
       </c>
       <c r="I47">
-        <v>17.579999999999998</v>
+        <v>16.97</v>
+      </c>
+      <c r="J47">
+        <v>16.78</v>
+      </c>
+      <c r="K47">
+        <f>H47-G47</f>
+        <v>1.7865</v>
       </c>
       <c r="L47" t="s">
         <v>61</v>
@@ -2328,213 +2801,292 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C48">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="D48">
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="E48">
+        <f>D48-C48</f>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="H48">
+        <v>2.617</v>
+      </c>
+      <c r="I48">
+        <v>14.71</v>
+      </c>
+      <c r="J48">
+        <v>16.82</v>
+      </c>
+      <c r="K48">
+        <f>H48-G48</f>
+        <v>1.6408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D49">
+        <v>1.0139</v>
+      </c>
+      <c r="E49">
+        <f>D49-C49</f>
+        <v>3.290000000000004E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="H49">
+        <v>2.2704</v>
+      </c>
+      <c r="I49">
+        <v>14.2</v>
+      </c>
+      <c r="J49">
+        <v>15.32</v>
+      </c>
+      <c r="K49">
+        <f>H49-G49</f>
+        <v>1.2962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1.0362</v>
+      </c>
+      <c r="E50">
+        <f>D50-C50</f>
+        <v>5.5300000000000016E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="H50">
+        <v>2.6926999999999999</v>
+      </c>
+      <c r="I50">
+        <v>14.92</v>
+      </c>
+      <c r="J50">
+        <v>17.11</v>
+      </c>
+      <c r="K50">
+        <f>H50-G50</f>
+        <v>1.7131999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="D51">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="E51">
+        <f>D51-C51</f>
+        <v>3.4200000000000119E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.9829</v>
+      </c>
+      <c r="G51">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="H51">
+        <v>2.3748</v>
+      </c>
+      <c r="I51">
+        <v>13.79</v>
+      </c>
+      <c r="J51">
+        <v>15.45</v>
+      </c>
+      <c r="K51">
+        <f>H51-G51</f>
+        <v>1.3966000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="D52">
+        <v>1.0036</v>
+      </c>
+      <c r="E52">
+        <f>D52-C52</f>
+        <v>4.2200000000000015E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="H52">
+        <v>2.5916000000000001</v>
+      </c>
+      <c r="I52">
+        <v>15.44</v>
+      </c>
+      <c r="J52">
+        <v>16.61</v>
+      </c>
+      <c r="K52">
+        <f>H52-G52</f>
+        <v>1.6204000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D53">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E53">
+        <f>D53-C53</f>
+        <v>5.1999999999999935E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G53">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="H53">
+        <v>2.3502999999999998</v>
+      </c>
+      <c r="I53">
+        <v>13.82</v>
+      </c>
+      <c r="J53">
+        <v>16.62</v>
+      </c>
+      <c r="K53">
+        <f>H53-G53</f>
+        <v>1.3731999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.0038</v>
+      </c>
+      <c r="E54">
+        <f>D54-C54</f>
+        <v>3.2399999999999984E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="G54">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="H54">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="I54">
+        <v>13.28</v>
+      </c>
+      <c r="J54">
+        <v>15.08</v>
+      </c>
+      <c r="K54">
+        <f>H54-G54</f>
+        <v>1.2917999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="D55">
+        <v>1.0148999999999999</v>
+      </c>
+      <c r="E55">
+        <f>D55-C55</f>
+        <v>4.7699999999999965E-2</v>
+      </c>
+      <c r="F55">
         <v>0.97370000000000001</v>
       </c>
-      <c r="D48">
-        <v>1.0225</v>
-      </c>
-      <c r="F48">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="G48">
-        <v>2.8492000000000002</v>
-      </c>
-      <c r="H48">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="I48">
-        <v>16.54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49">
-        <v>0.96719999999999995</v>
-      </c>
-      <c r="D49">
-        <v>1.0148999999999999</v>
-      </c>
-      <c r="F49">
+      <c r="G55">
         <v>0.97440000000000004</v>
       </c>
-      <c r="G49">
+      <c r="H55">
         <v>2.5002</v>
       </c>
-      <c r="H49">
+      <c r="I55">
         <v>15.12</v>
       </c>
-      <c r="I49">
+      <c r="J55">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D50">
-        <v>1.0250999999999999</v>
-      </c>
-      <c r="F50">
-        <v>0.98</v>
-      </c>
-      <c r="G50">
-        <v>2.7090999999999998</v>
-      </c>
-      <c r="H50">
-        <v>16.34</v>
-      </c>
-      <c r="I50">
-        <v>17.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51">
-        <v>0.9587</v>
-      </c>
-      <c r="D51">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="F51">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G51">
-        <v>2.6724000000000001</v>
-      </c>
-      <c r="H51">
-        <v>14.9</v>
-      </c>
-      <c r="I51">
-        <v>16.850000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>37</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="D52">
-        <v>1.0206999999999999</v>
-      </c>
-      <c r="F52">
-        <v>0.97640000000000005</v>
-      </c>
-      <c r="G52">
-        <v>2.5592000000000001</v>
-      </c>
-      <c r="H52">
-        <v>15.28</v>
-      </c>
-      <c r="I52">
-        <v>16.57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="D53">
-        <v>1.0476000000000001</v>
-      </c>
-      <c r="F53">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="G53">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="H53">
-        <v>16.86</v>
-      </c>
-      <c r="I53">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="D54">
-        <v>1.0717000000000001</v>
-      </c>
-      <c r="F54">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G54">
-        <v>2.7401</v>
-      </c>
-      <c r="H54">
-        <v>15.7</v>
-      </c>
-      <c r="I54">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55">
-        <v>0.96609999999999996</v>
-      </c>
-      <c r="D55">
-        <v>1.0656000000000001</v>
-      </c>
-      <c r="F55">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="G55">
-        <v>2.3736999999999999</v>
-      </c>
-      <c r="H55">
-        <v>14.24</v>
-      </c>
-      <c r="I55">
-        <v>16.559999999999999</v>
+      <c r="K55">
+        <f>H55-G55</f>
+        <v>1.5257999999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M55">
+    <sortCondition ref="A2:A55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/AFDW/tegula_april.xlsx
+++ b/Data/AFDW/tegula_april.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/AFDW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8174380A-6758-450D-B7AC-18F5989922E8}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="8_{A349D842-6C8A-45A6-8E50-38C770BDCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBEAB989-5DF5-4874-8618-FB4B6BA79C14}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{741D3A54-681F-4C81-825B-BEBB540A03C7}"/>
   </bookViews>
@@ -772,10 +772,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0968407-097C-4660-9142-C9F3CFE35CCD}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,8 +1155,8 @@
         <v>1.1124000000000001</v>
       </c>
       <c r="E2">
-        <f>D2-C2</f>
-        <v>0.13430000000000009</v>
+        <f>D2-F2</f>
+        <v>0.12140000000000006</v>
       </c>
       <c r="F2">
         <v>0.99099999999999999</v>
@@ -1178,7 +1174,7 @@
         <v>17.14</v>
       </c>
       <c r="K2">
-        <f>H2-G2</f>
+        <f t="shared" ref="K2:K33" si="0">H2-G2</f>
         <v>2.0615000000000001</v>
       </c>
     </row>
@@ -1196,8 +1192,11 @@
         <v>1.0235000000000001</v>
       </c>
       <c r="E3">
-        <f>D3-C3</f>
-        <v>5.5800000000000072E-2</v>
+        <f t="shared" ref="E3:E55" si="1">D3-F3</f>
+        <v>5.0400000000000111E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.97309999999999997</v>
       </c>
       <c r="G3">
         <v>0.96250000000000002</v>
@@ -1212,7 +1211,7 @@
         <v>17.23</v>
       </c>
       <c r="K3">
-        <f>H3-G3</f>
+        <f t="shared" si="0"/>
         <v>1.9691000000000001</v>
       </c>
     </row>
@@ -1230,8 +1229,8 @@
         <v>1.0241</v>
       </c>
       <c r="E4">
-        <f>D4-C4</f>
-        <v>4.9699999999999966E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4499999999999984E-2</v>
       </c>
       <c r="F4">
         <v>0.97960000000000003</v>
@@ -1249,7 +1248,7 @@
         <v>17.27</v>
       </c>
       <c r="K4">
-        <f>H4-G4</f>
+        <f t="shared" si="0"/>
         <v>1.9493999999999998</v>
       </c>
     </row>
@@ -1267,8 +1266,8 @@
         <v>1.0656000000000001</v>
       </c>
       <c r="E5">
-        <f>D5-C5</f>
-        <v>9.9500000000000144E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.6200000000000054E-2</v>
       </c>
       <c r="F5">
         <v>0.97940000000000005</v>
@@ -1286,7 +1285,7 @@
         <v>16.559999999999999</v>
       </c>
       <c r="K5">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>1.4143999999999999</v>
       </c>
     </row>
@@ -1304,8 +1303,11 @@
         <v>0.99670000000000003</v>
       </c>
       <c r="E6">
-        <f>D6-C6</f>
-        <v>4.500000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.95669999999999999</v>
       </c>
       <c r="G6">
         <v>0.97529999999999994</v>
@@ -1320,7 +1322,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="K6">
-        <f>H6-G6</f>
+        <f t="shared" si="0"/>
         <v>1.9391000000000003</v>
       </c>
     </row>
@@ -1338,8 +1340,11 @@
         <v>1.0121</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
-        <v>3.5000000000000031E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0900000000000039E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.98119999999999996</v>
       </c>
       <c r="G7">
         <v>0.97270000000000001</v>
@@ -1354,7 +1359,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="K7">
-        <f>H7-G7</f>
+        <f t="shared" si="0"/>
         <v>1.4994000000000001</v>
       </c>
     </row>
@@ -1372,8 +1377,8 @@
         <v>0.99780000000000002</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
-        <v>3.9100000000000024E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3900000000000041E-2</v>
       </c>
       <c r="F8">
         <v>0.96389999999999998</v>
@@ -1391,7 +1396,7 @@
         <v>16.850000000000001</v>
       </c>
       <c r="K8">
-        <f>H8-G8</f>
+        <f t="shared" si="0"/>
         <v>1.6984000000000001</v>
       </c>
     </row>
@@ -1409,8 +1414,8 @@
         <v>1.1241000000000001</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
-        <v>0.14760000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.1291000000000001</v>
       </c>
       <c r="F9">
         <v>0.995</v>
@@ -1428,7 +1433,7 @@
         <v>18.79</v>
       </c>
       <c r="K9">
-        <f>H9-G9</f>
+        <f t="shared" si="0"/>
         <v>2.2355999999999998</v>
       </c>
     </row>
@@ -1446,8 +1451,8 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
-        <v>3.3599999999999963E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0899999999999928E-2</v>
       </c>
       <c r="F10">
         <v>0.96830000000000005</v>
@@ -1465,7 +1470,7 @@
         <v>16.03</v>
       </c>
       <c r="K10">
-        <f>H10-G10</f>
+        <f t="shared" si="0"/>
         <v>1.4045000000000001</v>
       </c>
     </row>
@@ -1483,8 +1488,8 @@
         <v>1.0250999999999999</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
-        <v>4.6099999999999919E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0999999999999925E-2</v>
       </c>
       <c r="F11">
         <v>0.98409999999999997</v>
@@ -1502,7 +1507,7 @@
         <v>17.23</v>
       </c>
       <c r="K11">
-        <f>H11-G11</f>
+        <f t="shared" si="0"/>
         <v>1.7290999999999999</v>
       </c>
     </row>
@@ -1520,8 +1525,11 @@
         <v>1.0188999999999999</v>
       </c>
       <c r="E12">
-        <f>D12-C12</f>
-        <v>5.5299999999999905E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8399999999999888E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.97050000000000003</v>
       </c>
       <c r="G12">
         <v>0.96830000000000005</v>
@@ -1536,7 +1544,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="K12">
-        <f>H12-G12</f>
+        <f t="shared" si="0"/>
         <v>2.3005</v>
       </c>
     </row>
@@ -1554,8 +1562,11 @@
         <v>1.0113000000000001</v>
       </c>
       <c r="E13">
-        <f>D13-C13</f>
-        <v>4.5700000000000074E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.2000000000000037E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.96930000000000005</v>
       </c>
       <c r="G13">
         <v>0.97160000000000002</v>
@@ -1570,7 +1581,7 @@
         <v>17.09</v>
       </c>
       <c r="K13">
-        <f>H13-G13</f>
+        <f t="shared" si="0"/>
         <v>1.6172</v>
       </c>
     </row>
@@ -1588,8 +1599,8 @@
         <v>1.0168999999999999</v>
       </c>
       <c r="E14">
-        <f>D14-C14</f>
-        <v>3.4799999999999942E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.11489999999999989</v>
       </c>
       <c r="F14">
         <v>0.90200000000000002</v>
@@ -1607,7 +1618,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="K14">
-        <f>H14-G14</f>
+        <f t="shared" si="0"/>
         <v>1.4441999999999999</v>
       </c>
     </row>
@@ -1625,8 +1636,8 @@
         <v>1.0476000000000001</v>
       </c>
       <c r="E15">
-        <f>D15-C15</f>
-        <v>6.5200000000000036E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6100000000000021E-2</v>
       </c>
       <c r="F15">
         <v>1.0115000000000001</v>
@@ -1644,7 +1655,7 @@
         <v>17.68</v>
       </c>
       <c r="K15">
-        <f>H15-G15</f>
+        <f t="shared" si="0"/>
         <v>2.0528000000000004</v>
       </c>
     </row>
@@ -1662,8 +1673,8 @@
         <v>1.0717000000000001</v>
       </c>
       <c r="E16">
-        <f>D16-C16</f>
-        <v>0.10300000000000009</v>
+        <f t="shared" si="1"/>
+        <v>8.7400000000000144E-2</v>
       </c>
       <c r="F16">
         <v>0.98429999999999995</v>
@@ -1681,7 +1692,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="K16">
-        <f>H16-G16</f>
+        <f t="shared" si="0"/>
         <v>1.7730999999999999</v>
       </c>
     </row>
@@ -1699,8 +1710,11 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="E17">
-        <f>D17-C17</f>
-        <v>4.2799999999999838E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.8499999999999868E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.96450000000000002</v>
       </c>
       <c r="G17">
         <v>0.96909999999999996</v>
@@ -1715,7 +1729,7 @@
         <v>16.920000000000002</v>
       </c>
       <c r="K17">
-        <f>H17-G17</f>
+        <f t="shared" si="0"/>
         <v>1.9007999999999998</v>
       </c>
     </row>
@@ -1733,8 +1747,11 @@
         <v>1.02</v>
       </c>
       <c r="E18">
-        <f>D18-C18</f>
-        <v>5.920000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1599999999999979E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.96840000000000004</v>
       </c>
       <c r="G18">
         <v>0.96530000000000005</v>
@@ -1749,7 +1766,7 @@
         <v>17.260000000000002</v>
       </c>
       <c r="K18">
-        <f>H18-G18</f>
+        <f t="shared" si="0"/>
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -1767,8 +1784,8 @@
         <v>1.0225</v>
       </c>
       <c r="E19">
-        <f>D19-C19</f>
-        <v>4.8799999999999955E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7799999999999945E-2</v>
       </c>
       <c r="F19">
         <v>0.98470000000000002</v>
@@ -1786,7 +1803,7 @@
         <v>16.54</v>
       </c>
       <c r="K19">
-        <f>H19-G19</f>
+        <f t="shared" si="0"/>
         <v>1.8711000000000002</v>
       </c>
     </row>
@@ -1804,8 +1821,11 @@
         <v>1.0215000000000001</v>
       </c>
       <c r="E20">
-        <f>D20-C20</f>
-        <v>5.270000000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.840000000000011E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.97309999999999997</v>
       </c>
       <c r="G20">
         <v>0.96389999999999998</v>
@@ -1820,7 +1840,7 @@
         <v>17.38</v>
       </c>
       <c r="K20">
-        <f>H20-G20</f>
+        <f t="shared" si="0"/>
         <v>2.0270999999999999</v>
       </c>
     </row>
@@ -1838,8 +1858,11 @@
         <v>0.99809999999999999</v>
       </c>
       <c r="E21">
-        <f>D21-C21</f>
-        <v>2.9399999999999982E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5900000000000034E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.97219999999999995</v>
       </c>
       <c r="G21">
         <v>0.95840000000000003</v>
@@ -1854,7 +1877,7 @@
         <v>15.88</v>
       </c>
       <c r="K21">
-        <f>H21-G21</f>
+        <f t="shared" si="0"/>
         <v>1.3323999999999998</v>
       </c>
     </row>
@@ -1872,8 +1895,11 @@
         <v>1.0236000000000001</v>
       </c>
       <c r="E22">
-        <f>D22-C22</f>
-        <v>4.8700000000000077E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3800000000000061E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.9798</v>
       </c>
       <c r="G22">
         <v>0.97009999999999996</v>
@@ -1888,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="K22">
-        <f>H22-G22</f>
+        <f t="shared" si="0"/>
         <v>1.6779999999999999</v>
       </c>
     </row>
@@ -1906,8 +1932,11 @@
         <v>1.0321</v>
       </c>
       <c r="E23">
-        <f>D23-C23</f>
-        <v>4.6900000000000053E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1499999999999981E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.99060000000000004</v>
       </c>
       <c r="G23">
         <v>0.97250000000000003</v>
@@ -1922,7 +1951,7 @@
         <v>17.14</v>
       </c>
       <c r="K23">
-        <f>H23-G23</f>
+        <f t="shared" si="0"/>
         <v>1.7578999999999998</v>
       </c>
     </row>
@@ -1940,8 +1969,8 @@
         <v>1.0196000000000001</v>
       </c>
       <c r="E24">
-        <f>D24-C24</f>
-        <v>4.2500000000000093E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.630000000000011E-2</v>
       </c>
       <c r="F24">
         <v>0.98329999999999995</v>
@@ -1959,7 +1988,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="K24">
-        <f>H24-G24</f>
+        <f t="shared" si="0"/>
         <v>1.5974999999999997</v>
       </c>
     </row>
@@ -1977,8 +2006,11 @@
         <v>1.0254000000000001</v>
       </c>
       <c r="E25">
-        <f>D25-C25</f>
-        <v>4.9800000000000066E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4000000000000039E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.98140000000000005</v>
       </c>
       <c r="G25">
         <v>0.97160000000000002</v>
@@ -1993,7 +2025,7 @@
         <v>17.37</v>
       </c>
       <c r="K25">
-        <f>H25-G25</f>
+        <f t="shared" si="0"/>
         <v>1.7507999999999999</v>
       </c>
     </row>
@@ -2011,8 +2043,8 @@
         <v>1.0186999999999999</v>
       </c>
       <c r="E26">
-        <f>D26-C26</f>
-        <v>4.1999999999999926E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7899999999999934E-2</v>
       </c>
       <c r="F26">
         <v>0.98080000000000001</v>
@@ -2030,7 +2062,7 @@
         <v>15.38</v>
       </c>
       <c r="K26">
-        <f>H26-G26</f>
+        <f t="shared" si="0"/>
         <v>1.3525999999999998</v>
       </c>
     </row>
@@ -2048,8 +2080,11 @@
         <v>1.0164</v>
       </c>
       <c r="E27">
-        <f>D27-C27</f>
-        <v>4.5799999999999952E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0899999999999936E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.97550000000000003</v>
       </c>
       <c r="G27">
         <v>0.96350000000000002</v>
@@ -2064,7 +2099,7 @@
         <v>17.25</v>
       </c>
       <c r="K27">
-        <f>H27-G27</f>
+        <f t="shared" si="0"/>
         <v>1.6037999999999999</v>
       </c>
     </row>
@@ -2082,8 +2117,8 @@
         <v>1.0951</v>
       </c>
       <c r="E28">
-        <f>D28-C28</f>
-        <v>0.11709999999999998</v>
+        <f t="shared" si="1"/>
+        <v>9.9700000000000011E-2</v>
       </c>
       <c r="F28">
         <v>0.99539999999999995</v>
@@ -2101,7 +2136,7 @@
         <v>17.579999999999998</v>
       </c>
       <c r="K28">
-        <f>H28-G28</f>
+        <f t="shared" si="0"/>
         <v>2.2202999999999999</v>
       </c>
       <c r="M28" t="s">
@@ -2122,8 +2157,8 @@
         <v>1.0206999999999999</v>
       </c>
       <c r="E29">
-        <f>D29-C29</f>
-        <v>5.1999999999999935E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7599999999999976E-2</v>
       </c>
       <c r="F29">
         <v>0.97309999999999997</v>
@@ -2141,7 +2176,7 @@
         <v>16.57</v>
       </c>
       <c r="K29">
-        <f>H29-G29</f>
+        <f t="shared" si="0"/>
         <v>1.5828000000000002</v>
       </c>
     </row>
@@ -2159,8 +2194,8 @@
         <v>1.0006999999999999</v>
       </c>
       <c r="E30">
-        <f>D30-C30</f>
-        <v>2.8599999999999959E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5199999999999889E-2</v>
       </c>
       <c r="F30">
         <v>0.97550000000000003</v>
@@ -2178,7 +2213,7 @@
         <v>14.93</v>
       </c>
       <c r="K30">
-        <f>H30-G30</f>
+        <f t="shared" si="0"/>
         <v>1.5268999999999999</v>
       </c>
     </row>
@@ -2196,8 +2231,11 @@
         <v>1.0198</v>
       </c>
       <c r="E31">
-        <f>D31-C31</f>
-        <v>4.5399999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1600000000000081E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.97819999999999996</v>
       </c>
       <c r="G31">
         <v>0.97450000000000003</v>
@@ -2212,7 +2250,7 @@
         <v>16.77</v>
       </c>
       <c r="K31">
-        <f>H31-G31</f>
+        <f t="shared" si="0"/>
         <v>1.5432000000000001</v>
       </c>
     </row>
@@ -2230,8 +2268,11 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="E32">
-        <f>D32-C32</f>
-        <v>4.9599999999999866E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.5499999999999874E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.97550000000000003</v>
       </c>
       <c r="G32">
         <v>0.97</v>
@@ -2246,7 +2287,7 @@
         <v>17.45</v>
       </c>
       <c r="K32">
-        <f>H32-G32</f>
+        <f t="shared" si="0"/>
         <v>1.8894</v>
       </c>
     </row>
@@ -2264,8 +2305,8 @@
         <v>1.0185</v>
       </c>
       <c r="E33">
-        <f>D33-C33</f>
-        <v>3.5399999999999987E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0100000000000016E-2</v>
       </c>
       <c r="F33">
         <v>0.98839999999999995</v>
@@ -2283,7 +2324,7 @@
         <v>16.77</v>
       </c>
       <c r="K33">
-        <f>H33-G33</f>
+        <f t="shared" si="0"/>
         <v>1.4657999999999998</v>
       </c>
     </row>
@@ -2301,8 +2342,8 @@
         <v>1.0165</v>
       </c>
       <c r="E34">
-        <f>D34-C34</f>
-        <v>5.0099999999999922E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3199999999999905E-2</v>
       </c>
       <c r="F34">
         <v>0.97330000000000005</v>
@@ -2320,7 +2361,7 @@
         <v>17.13</v>
       </c>
       <c r="K34">
-        <f>H34-G34</f>
+        <f t="shared" ref="K34:K55" si="2">H34-G34</f>
         <v>2.0403000000000002</v>
       </c>
     </row>
@@ -2338,8 +2379,8 @@
         <v>1.0189999999999999</v>
       </c>
       <c r="E35">
-        <f>D35-C35</f>
-        <v>4.0799999999999947E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.71999999999999E-2</v>
       </c>
       <c r="F35">
         <v>0.98180000000000001</v>
@@ -2357,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="K35">
-        <f>H35-G35</f>
+        <f t="shared" si="2"/>
         <v>1.9312</v>
       </c>
     </row>
@@ -2375,8 +2416,8 @@
         <v>0.99529999999999996</v>
       </c>
       <c r="E36">
-        <f>D36-C36</f>
-        <v>3.1499999999999972E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.7799999999999936E-2</v>
       </c>
       <c r="F36">
         <v>0.96750000000000003</v>
@@ -2394,7 +2435,7 @@
         <v>15.3</v>
       </c>
       <c r="K36">
-        <f>H36-G36</f>
+        <f t="shared" si="2"/>
         <v>1.5074000000000001</v>
       </c>
     </row>
@@ -2412,8 +2453,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E37">
-        <f>D37-C37</f>
-        <v>0.11640000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.10020000000000007</v>
       </c>
       <c r="F37">
         <v>1.0021</v>
@@ -2431,7 +2472,7 @@
         <v>17.64</v>
       </c>
       <c r="K37">
-        <f>H37-G37</f>
+        <f t="shared" si="2"/>
         <v>2.0045000000000002</v>
       </c>
       <c r="L37" t="s">
@@ -2452,8 +2493,8 @@
         <v>1.0122</v>
       </c>
       <c r="E38">
-        <f>D38-C38</f>
-        <v>4.1000000000000036E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7200000000000011E-2</v>
       </c>
       <c r="F38">
         <v>0.97499999999999998</v>
@@ -2471,7 +2512,7 @@
         <v>16.78</v>
       </c>
       <c r="K38">
-        <f>H38-G38</f>
+        <f t="shared" si="2"/>
         <v>1.7421000000000002</v>
       </c>
     </row>
@@ -2489,8 +2530,11 @@
         <v>1.0522</v>
       </c>
       <c r="E39">
-        <f>D39-C39</f>
-        <v>6.9500000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6100000000000048E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.98609999999999998</v>
       </c>
       <c r="G39">
         <v>0.97360000000000002</v>
@@ -2505,7 +2549,7 @@
         <v>16.37</v>
       </c>
       <c r="K39">
-        <f>H39-G39</f>
+        <f t="shared" si="2"/>
         <v>1.7045000000000001</v>
       </c>
       <c r="L39" t="s">
@@ -2526,8 +2570,8 @@
         <v>1.0145999999999999</v>
       </c>
       <c r="E40">
-        <f>D40-C40</f>
-        <v>5.0999999999999934E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.5099999999999918E-2</v>
       </c>
       <c r="F40">
         <v>0.96950000000000003</v>
@@ -2545,7 +2589,7 @@
         <v>16.96</v>
       </c>
       <c r="K40">
-        <f>H40-G40</f>
+        <f t="shared" si="2"/>
         <v>1.8066999999999998</v>
       </c>
     </row>
@@ -2563,8 +2607,8 @@
         <v>1.0086999999999999</v>
       </c>
       <c r="E41">
-        <f>D41-C41</f>
-        <v>3.5699999999999954E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1899999999999928E-2</v>
       </c>
       <c r="F41">
         <v>0.9768</v>
@@ -2582,7 +2626,7 @@
         <v>16.72</v>
       </c>
       <c r="K41">
-        <f>H41-G41</f>
+        <f t="shared" si="2"/>
         <v>1.7512999999999999</v>
       </c>
     </row>
@@ -2600,8 +2644,11 @@
         <v>1.0198</v>
       </c>
       <c r="E42">
-        <f>D42-C42</f>
-        <v>4.4600000000000084E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.9798</v>
       </c>
       <c r="G42">
         <v>0.9718</v>
@@ -2616,7 +2663,7 @@
         <v>16.71</v>
       </c>
       <c r="K42">
-        <f>H42-G42</f>
+        <f t="shared" si="2"/>
         <v>1.4683000000000002</v>
       </c>
     </row>
@@ -2634,8 +2681,11 @@
         <v>1.0182</v>
       </c>
       <c r="E43">
-        <f>D43-C43</f>
-        <v>4.6899999999999942E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1900000000000048E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.97629999999999995</v>
       </c>
       <c r="G43">
         <v>0.96860000000000002</v>
@@ -2650,7 +2700,7 @@
         <v>17.02</v>
       </c>
       <c r="K43">
-        <f>H43-G43</f>
+        <f t="shared" si="2"/>
         <v>1.8771</v>
       </c>
     </row>
@@ -2668,8 +2718,8 @@
         <v>0.99650000000000005</v>
       </c>
       <c r="E44">
-        <f>D44-C44</f>
-        <v>3.4900000000000042E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9800000000000049E-2</v>
       </c>
       <c r="F44">
         <v>0.9667</v>
@@ -2687,7 +2737,7 @@
         <v>15.15</v>
       </c>
       <c r="K44">
-        <f>H44-G44</f>
+        <f t="shared" si="2"/>
         <v>1.3540999999999999</v>
       </c>
     </row>
@@ -2705,8 +2755,11 @@
         <v>1.0243</v>
       </c>
       <c r="E45">
-        <f>D45-C45</f>
-        <v>4.8799999999999955E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.2899999999999938E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.98140000000000005</v>
       </c>
       <c r="G45">
         <v>0.97140000000000004</v>
@@ -2721,7 +2774,7 @@
         <v>17.53</v>
       </c>
       <c r="K45">
-        <f>H45-G45</f>
+        <f t="shared" si="2"/>
         <v>2.1261000000000001</v>
       </c>
     </row>
@@ -2739,8 +2792,8 @@
         <v>1.0285</v>
       </c>
       <c r="E46">
-        <f>D46-C46</f>
-        <v>4.5699999999999963E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1899999999999937E-2</v>
       </c>
       <c r="F46">
         <v>0.98660000000000003</v>
@@ -2758,7 +2811,7 @@
         <v>17.22</v>
       </c>
       <c r="K46">
-        <f>H46-G46</f>
+        <f t="shared" si="2"/>
         <v>1.6868000000000003</v>
       </c>
     </row>
@@ -2776,8 +2829,11 @@
         <v>1.0654999999999999</v>
       </c>
       <c r="E47">
-        <f>D47-C47</f>
-        <v>9.9299999999999944E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5599999999999898E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.97989999999999999</v>
       </c>
       <c r="G47">
         <v>0.97</v>
@@ -2792,7 +2848,7 @@
         <v>16.78</v>
       </c>
       <c r="K47">
-        <f>H47-G47</f>
+        <f t="shared" si="2"/>
         <v>1.7865</v>
       </c>
       <c r="L47" t="s">
@@ -2813,8 +2869,11 @@
         <v>1.0126999999999999</v>
       </c>
       <c r="E48">
-        <f>D48-C48</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1199999999999894E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.98150000000000004</v>
       </c>
       <c r="G48">
         <v>0.97619999999999996</v>
@@ -2829,7 +2888,7 @@
         <v>16.82</v>
       </c>
       <c r="K48">
-        <f>H48-G48</f>
+        <f t="shared" si="2"/>
         <v>1.6408</v>
       </c>
     </row>
@@ -2847,8 +2906,11 @@
         <v>1.0139</v>
       </c>
       <c r="E49">
-        <f>D49-C49</f>
-        <v>3.290000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9600000000000071E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.98429999999999995</v>
       </c>
       <c r="G49">
         <v>0.97419999999999995</v>
@@ -2863,7 +2925,7 @@
         <v>15.32</v>
       </c>
       <c r="K49">
-        <f>H49-G49</f>
+        <f t="shared" si="2"/>
         <v>1.2962</v>
       </c>
     </row>
@@ -2881,8 +2943,11 @@
         <v>1.0362</v>
       </c>
       <c r="E50">
-        <f>D50-C50</f>
-        <v>5.5300000000000016E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.5699999999999963E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.99050000000000005</v>
       </c>
       <c r="G50">
         <v>0.97950000000000004</v>
@@ -2897,7 +2962,7 @@
         <v>17.11</v>
       </c>
       <c r="K50">
-        <f>H50-G50</f>
+        <f t="shared" si="2"/>
         <v>1.7131999999999998</v>
       </c>
     </row>
@@ -2915,8 +2980,8 @@
         <v>1.0134000000000001</v>
       </c>
       <c r="E51">
-        <f>D51-C51</f>
-        <v>3.4200000000000119E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0500000000000083E-2</v>
       </c>
       <c r="F51">
         <v>0.9829</v>
@@ -2934,7 +2999,7 @@
         <v>15.45</v>
       </c>
       <c r="K51">
-        <f>H51-G51</f>
+        <f t="shared" si="2"/>
         <v>1.3966000000000001</v>
       </c>
     </row>
@@ -2952,8 +3017,11 @@
         <v>1.0036</v>
       </c>
       <c r="E52">
-        <f>D52-C52</f>
-        <v>4.2200000000000015E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.8200000000000012E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.96540000000000004</v>
       </c>
       <c r="G52">
         <v>0.97119999999999995</v>
@@ -2968,7 +3036,7 @@
         <v>16.61</v>
       </c>
       <c r="K52">
-        <f>H52-G52</f>
+        <f t="shared" si="2"/>
         <v>1.6204000000000001</v>
       </c>
     </row>
@@ -2986,8 +3054,8 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="E53">
-        <f>D53-C53</f>
-        <v>5.1999999999999935E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7699999999999965E-2</v>
       </c>
       <c r="F53">
         <v>0.97729999999999995</v>
@@ -3005,7 +3073,7 @@
         <v>16.62</v>
       </c>
       <c r="K53">
-        <f>H53-G53</f>
+        <f t="shared" si="2"/>
         <v>1.3731999999999998</v>
       </c>
     </row>
@@ -3023,8 +3091,8 @@
         <v>1.0038</v>
       </c>
       <c r="E54">
-        <f>D54-C54</f>
-        <v>3.2399999999999984E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9399999999999982E-2</v>
       </c>
       <c r="F54">
         <v>0.97440000000000004</v>
@@ -3042,7 +3110,7 @@
         <v>15.08</v>
       </c>
       <c r="K54">
-        <f>H54-G54</f>
+        <f t="shared" si="2"/>
         <v>1.2917999999999998</v>
       </c>
     </row>
@@ -3060,8 +3128,8 @@
         <v>1.0148999999999999</v>
       </c>
       <c r="E55">
-        <f>D55-C55</f>
-        <v>4.7699999999999965E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1199999999999903E-2</v>
       </c>
       <c r="F55">
         <v>0.97370000000000001</v>
@@ -3079,7 +3147,7 @@
         <v>15.33</v>
       </c>
       <c r="K55">
-        <f>H55-G55</f>
+        <f t="shared" si="2"/>
         <v>1.5257999999999998</v>
       </c>
     </row>
